--- a/data/trans_orig/Q17H_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17H_R-Provincia-trans_orig.xlsx
@@ -704,33 +704,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.635968620048954</v>
+        <v>5.847481480084848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.611756439792539</v>
+        <v>6.54895846468799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.365891180123448</v>
+        <v>1.381827900501852</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>3.471887313326194</v>
+        <v>3.479950295734407</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.580575466244582</v>
+        <v>3.422626202741456</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.226636087746908</v>
+        <v>1.21533657191597</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>4.955999167110179</v>
+        <v>4.896430862382569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.358128698864337</v>
+        <v>5.561338580398907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.362669074703239</v>
+        <v>1.355805925348219</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.108058164577633</v>
+        <v>8.209144095337857</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.26062844045509</v>
+        <v>11.18379244107461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.933578089210107</v>
+        <v>1.98262972768873</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>5.909840394176438</v>
+        <v>5.794444195123048</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.68896841424458</v>
+        <v>11.80449646510775</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.672274128205645</v>
+        <v>1.678379638398751</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>6.673971187620347</v>
+        <v>6.665254449932839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10.28662651421416</v>
+        <v>10.3818416627607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.734148842577</v>
+        <v>1.730225011740091</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -828,33 +828,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10.15325667792367</v>
+        <v>10.2075627065314</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.019703784551386</v>
+        <v>6.072967839315715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.482828321171922</v>
+        <v>1.478525869067252</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>6.099284472452196</v>
+        <v>5.955433314930318</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.5261461045561</v>
+        <v>3.470347704416007</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.378815681424562</v>
+        <v>1.373827841018674</v>
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>8.324264150790695</v>
+        <v>8.410788220504664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4.935562010772984</v>
+        <v>4.966333785905551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.471955419089508</v>
+        <v>1.47025675421961</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -866,33 +866,33 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.82287349821975</v>
+        <v>13.7745040477928</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.614677594080689</v>
+        <v>8.546333418481559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.898382301121761</v>
+        <v>1.929613056104882</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>8.313789659298328</v>
+        <v>8.14442504489346</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.640339016332188</v>
+        <v>5.519015243066657</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.760035517065039</v>
+        <v>1.756918951238293</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>10.44515404871617</v>
+        <v>10.47475102153541</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.544740708421225</v>
+        <v>6.642040335465111</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.769268904337851</v>
+        <v>1.76506345201527</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.089713411352492</v>
+        <v>7.114625251210692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.160965231202284</v>
+        <v>6.18632325629351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.191663215282962</v>
+        <v>2.172014622518418</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>4.683428115134364</v>
+        <v>4.714798090384412</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.844971906082087</v>
+        <v>2.880664979382803</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.836873486185318</v>
+        <v>1.841530710685894</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>6.086136366510083</v>
+        <v>6.14751161012619</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4.67609130136742</v>
+        <v>4.643842638027272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.091236765008131</v>
+        <v>2.0917424275067</v>
       </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.49772199373424</v>
+        <v>9.534406616564613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.355795061409323</v>
+        <v>9.577458490525517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.78000183754556</v>
+        <v>2.814287930030421</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>6.759209673554129</v>
+        <v>6.81740748704061</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.288275522478363</v>
+        <v>4.23748788813857</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.476708741817293</v>
+        <v>2.476505609740587</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>7.74234959972339</v>
+        <v>7.769877731126459</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.357610665678462</v>
+        <v>6.389557255018659</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.531330679984307</v>
+        <v>2.559682272824296</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1076,33 +1076,33 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.480206090573002</v>
+        <v>7.46180435024499</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.651832697602713</v>
+        <v>7.527619778715211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.869025479334049</v>
+        <v>1.895640342320296</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>3.599367119312354</v>
+        <v>3.634030148440791</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.498137456279183</v>
+        <v>3.442764051046481</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.474714809656163</v>
+        <v>1.461637795559448</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>5.833093944416058</v>
+        <v>5.752709260705623</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.718998468711029</v>
+        <v>5.752217065047906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.737973355207583</v>
+        <v>1.753267062887169</v>
       </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
@@ -1114,33 +1114,33 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.81793657171408</v>
+        <v>13.41861379952957</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.64766417609887</v>
+        <v>11.7913817560879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.393198468097468</v>
+        <v>2.421190493087112</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>5.7794933274645</v>
+        <v>5.750615253145972</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.358072387321134</v>
+        <v>5.217667165343478</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.978533778843073</v>
+        <v>1.934165388909656</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>8.528308662141082</v>
+        <v>8.519078494251914</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.882486953384591</v>
+        <v>7.864480341119734</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.080471014297377</v>
+        <v>2.089438419018434</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
@@ -1200,33 +1200,33 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.801328108640246</v>
+        <v>6.010354378690555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.155362788862628</v>
+        <v>6.269007642564423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.842156594533052</v>
+        <v>1.840723288655902</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>2.497540450460017</v>
+        <v>2.567634694809145</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.555149246792862</v>
+        <v>2.517687438486032</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.693809158240743</v>
+        <v>1.642138021155246</v>
       </c>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>4.533403177100134</v>
+        <v>4.506755253788947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4.627565576673251</v>
+        <v>4.706162605206139</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.840711091051374</v>
+        <v>1.853077133908828</v>
       </c>
       <c r="N17" s="5" t="inlineStr"/>
     </row>
@@ -1238,33 +1238,33 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.41727888802363</v>
+        <v>12.90898923057968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.29900982924259</v>
+        <v>13.60180740491039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.662519115125705</v>
+        <v>2.657786905108941</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>5.212613253972158</v>
+        <v>5.332528650343547</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.103055186454787</v>
+        <v>4.083363141573823</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.359528083753957</v>
+        <v>2.299498135836838</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>8.177294489825453</v>
+        <v>8.610355541078246</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.953069390776529</v>
+        <v>8.957201973528749</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.366980544904837</v>
+        <v>2.350870545119869</v>
       </c>
       <c r="N18" s="5" t="inlineStr"/>
     </row>
@@ -1324,33 +1324,33 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.426964667379897</v>
+        <v>7.237808710066267</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.389522927141354</v>
+        <v>5.41860705239357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.091556089090417</v>
+        <v>1.086342653752582</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>3.447289503270784</v>
+        <v>3.40421352571847</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.242558490605993</v>
+        <v>3.148665411288735</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9534879285827806</v>
+        <v>0.9571670121308262</v>
       </c>
       <c r="J20" s="5" t="inlineStr"/>
       <c r="K20" s="5" t="n">
-        <v>5.514774220543525</v>
+        <v>5.584312227814814</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4.52947367002541</v>
+        <v>4.558834080354851</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.060422364128569</v>
+        <v>1.089693201345223</v>
       </c>
       <c r="N20" s="5" t="inlineStr"/>
     </row>
@@ -1362,33 +1362,33 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.09914985323873</v>
+        <v>12.21602085753785</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.164365179714892</v>
+        <v>9.028702315804424</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.644971758031518</v>
+        <v>1.63771093434625</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>5.244497788984055</v>
+        <v>5.220280343544936</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>4.812086855942115</v>
+        <v>4.782442032672837</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.457479098734321</v>
+        <v>1.443929884534456</v>
       </c>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="n">
-        <v>8.060212930544134</v>
+        <v>8.315881521611084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6.419974223060906</v>
+        <v>6.492396122964934</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.447258360065031</v>
+        <v>1.446581802008526</v>
       </c>
       <c r="N21" s="5" t="inlineStr"/>
     </row>
@@ -1448,33 +1448,33 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.794087570357339</v>
+        <v>7.720512257736557</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.170100776241577</v>
+        <v>7.232533960214074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.514559864782076</v>
+        <v>1.532478004114968</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>4.619330458270482</v>
+        <v>4.584650694785967</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.268974027338373</v>
+        <v>4.228099444363796</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.641776967451118</v>
+        <v>1.642526084750047</v>
       </c>
       <c r="J23" s="5" t="inlineStr"/>
       <c r="K23" s="5" t="n">
-        <v>6.363119961759121</v>
+        <v>6.387656176251245</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.870875304802807</v>
+        <v>5.92757087888265</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.637480590517254</v>
+        <v>1.64792162873369</v>
       </c>
       <c r="N23" s="5" t="inlineStr"/>
     </row>
@@ -1486,33 +1486,33 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.65444989235744</v>
+        <v>10.55337910635638</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.02301419867282</v>
+        <v>10.17928389206225</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.951520544529807</v>
+        <v>1.982601793035363</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>6.80829041343332</v>
+        <v>6.667750664558416</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.263402930903071</v>
+        <v>6.263921872947718</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.043834273567911</v>
+        <v>2.041984278167946</v>
       </c>
       <c r="J24" s="5" t="inlineStr"/>
       <c r="K24" s="5" t="n">
-        <v>8.158870560430509</v>
+        <v>8.143754398290207</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.581920795764971</v>
+        <v>7.694945867374272</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.934772958896896</v>
+        <v>1.938546404406451</v>
       </c>
       <c r="N24" s="5" t="inlineStr"/>
     </row>
@@ -1572,33 +1572,33 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>6.663314646319034</v>
+        <v>6.637346117340837</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.89618399508798</v>
+        <v>6.98754612919116</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.822819119380585</v>
+        <v>1.830274975594098</v>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="n">
-        <v>3.944430410437636</v>
+        <v>3.945282153140543</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>4.154020442236518</v>
+        <v>4.174688792198578</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.697077121237916</v>
+        <v>1.68586578846899</v>
       </c>
       <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="n">
-        <v>5.461545772651057</v>
+        <v>5.488819791237292</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5.680959404173763</v>
+        <v>5.639377607129536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.805945989954428</v>
+        <v>1.802116759794415</v>
       </c>
       <c r="N26" s="5" t="inlineStr"/>
     </row>
@@ -1610,33 +1610,33 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.868512239035875</v>
+        <v>8.805080580510564</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.793773073881157</v>
+        <v>9.702051868729122</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.245865357311256</v>
+        <v>2.238730767091192</v>
       </c>
       <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="n">
-        <v>5.328890758341275</v>
+        <v>5.21707704306488</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>5.317090320174658</v>
+        <v>5.38283652996037</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.043009472465362</v>
+        <v>2.043040106257779</v>
       </c>
       <c r="J27" s="5" t="inlineStr"/>
       <c r="K27" s="5" t="n">
-        <v>6.762624768468679</v>
+        <v>6.701605900220105</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7.223439914749611</v>
+        <v>7.210904466986834</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.073687232751995</v>
+        <v>2.085846373460174</v>
       </c>
       <c r="N27" s="5" t="inlineStr"/>
     </row>
@@ -1696,33 +1696,33 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.216570895027264</v>
+        <v>8.147129043260586</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.391163646933366</v>
+        <v>7.366941173571321</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.797583588350145</v>
+        <v>1.802356697605298</v>
       </c>
       <c r="F29" s="5" t="inlineStr"/>
       <c r="G29" s="5" t="n">
-        <v>4.736718484921505</v>
+        <v>4.718833175880889</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.122669981878345</v>
+        <v>4.105135118769286</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.658919989207269</v>
+        <v>1.657877631063076</v>
       </c>
       <c r="J29" s="5" t="inlineStr"/>
       <c r="K29" s="5" t="n">
-        <v>6.548130770793724</v>
+        <v>6.560459234169842</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5.832921463963967</v>
+        <v>5.833079764267458</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1.750684484753795</v>
+        <v>1.7535148466742</v>
       </c>
       <c r="N29" s="5" t="inlineStr"/>
     </row>
@@ -1734,33 +1734,33 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.395953622857045</v>
+        <v>9.30262151815894</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.645355646041283</v>
+        <v>8.669171493167481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.980490016430622</v>
+        <v>1.990117872396105</v>
       </c>
       <c r="F30" s="5" t="inlineStr"/>
       <c r="G30" s="5" t="n">
-        <v>5.451199558129949</v>
+        <v>5.483828618893726</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.987737821792185</v>
+        <v>5.015486065703578</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.824637445198126</v>
+        <v>1.816892722745841</v>
       </c>
       <c r="J30" s="5" t="inlineStr"/>
       <c r="K30" s="5" t="n">
-        <v>7.277165550489153</v>
+        <v>7.244975590725445</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6.577112931059202</v>
+        <v>6.556577625579346</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1.876608455406889</v>
+        <v>1.87917504466325</v>
       </c>
       <c r="N30" s="5" t="inlineStr"/>
     </row>
